--- a/Test Matrix.xlsx
+++ b/Test Matrix.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5571C29B-F28C-4678-9B42-07DAC6FC2F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kckar\Desktop\Revature\Project-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E703C70-AF34-4206-AD21-7F32294FF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="80" windowWidth="15810" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Feature</t>
   </si>
@@ -134,13 +139,88 @@
   </si>
   <si>
     <t>1.1(click on review tab and a list of approved reviews appear if any were approved)</t>
+  </si>
+  <si>
+    <t>Search through books</t>
+  </si>
+  <si>
+    <t>Search through movies</t>
+  </si>
+  <si>
+    <t>Search through games</t>
+  </si>
+  <si>
+    <t>Add new media</t>
+  </si>
+  <si>
+    <t>Approve new media requests</t>
+  </si>
+  <si>
+    <t>Deny new media requests</t>
+  </si>
+  <si>
+    <t>See past media approvals</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to search through books.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to search through movies.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to search through games.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to add new media to my collection.</t>
+  </si>
+  <si>
+    <t>As a moderator I want to approve legitimate media add requests.</t>
+  </si>
+  <si>
+    <t>As a moderator I want to deny legitimate media add requests.</t>
+  </si>
+  <si>
+    <t>As a moderator I want to view my past media approvals.</t>
+  </si>
+  <si>
+    <t>(1.1) Generating list of all books.</t>
+  </si>
+  <si>
+    <t>(1.1) Generating list of all movies.</t>
+  </si>
+  <si>
+    <t>(1.1) Generating list of all games.</t>
+  </si>
+  <si>
+    <t>(1.1) Adding information to add media.</t>
+  </si>
+  <si>
+    <t>(1.1) Entering media id can clicking approve button.</t>
+  </si>
+  <si>
+    <t>(1.1) Entering media id can clicking deny button.</t>
+  </si>
+  <si>
+    <t>(1.1) Generating list of past approved media.</t>
+  </si>
+  <si>
+    <t>(1.2) N/A</t>
+  </si>
+  <si>
+    <t>(1.2) Enter in correct media id.</t>
+  </si>
+  <si>
+    <t>1.1 PASS - 1.2 PASS</t>
+  </si>
+  <si>
+    <t>Kyla Karnoski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,26 +565,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
+    <col min="4" max="4" width="71.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -559,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -585,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -611,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -637,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -663,7 +743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -687,6 +767,188 @@
       </c>
       <c r="I7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Test Matrix.xlsx
+++ b/Test Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kckar\Desktop\Revature\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ada2637025c8e144/Desktop/Revature/project2/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E703C70-AF34-4206-AD21-7F32294FF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B216573F-32E5-4BB7-84E8-24BB1E2F3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="80" windowWidth="15810" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33870" yWindow="165" windowWidth="25185" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>Feature</t>
   </si>
@@ -96,12 +94,6 @@
     <t>1.1 PASS 1.2 PASS</t>
   </si>
   <si>
-    <t>1.1 PASS 1.2 Incomplete</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t>Approve or Deny Review</t>
   </si>
   <si>
@@ -214,6 +206,84 @@
   </si>
   <si>
     <t>Kyla Karnoski</t>
+  </si>
+  <si>
+    <t>1.1 PASS 1.2 N/A</t>
+  </si>
+  <si>
+    <t>As a moderator I want to log in so that I can view completed contact us requests.</t>
+  </si>
+  <si>
+    <t>(1.1) Viewing generating list of all completed requests</t>
+  </si>
+  <si>
+    <t>Amanda Gonzalez</t>
+  </si>
+  <si>
+    <t>View completed Contact Requests</t>
+  </si>
+  <si>
+    <t>As a moderator I want view pending contact us requests.</t>
+  </si>
+  <si>
+    <t>As a moderator I want update a pending contact us requests.</t>
+  </si>
+  <si>
+    <t>As a moderator I want verify I am alerted when an update a pending contact us request is unsuccessful</t>
+  </si>
+  <si>
+    <t>As a moderator I want verify I am alerted when a delete completed contact us request is unsuccessful.</t>
+  </si>
+  <si>
+    <t>As a moderator I want to delete a completed contact us requests.</t>
+  </si>
+  <si>
+    <t>As a user I want to create a contact us request.</t>
+  </si>
+  <si>
+    <t>View pending Contact Request</t>
+  </si>
+  <si>
+    <t>I want to update pending contact request</t>
+  </si>
+  <si>
+    <t>Verify an alert comes up when pending update is unsuccessful</t>
+  </si>
+  <si>
+    <t>Verify an alert comes up when delete contact request is unsuccessful</t>
+  </si>
+  <si>
+    <t>Delete completed request</t>
+  </si>
+  <si>
+    <t>Create contact request</t>
+  </si>
+  <si>
+    <t>(1.1) Viewing generating list of all pending requests</t>
+  </si>
+  <si>
+    <t>(1.1) Update pending requests</t>
+  </si>
+  <si>
+    <t>(1.1) Alerted when update contact request is unsuccessful</t>
+  </si>
+  <si>
+    <t>(1.1) Alerted when delete contact request is unsuccessful</t>
+  </si>
+  <si>
+    <t>(1.1) Delete completed contact us request</t>
+  </si>
+  <si>
+    <t>(1.1) create contact us request</t>
+  </si>
+  <si>
+    <t>1.2(Contact Request delete unsuccessful)</t>
+  </si>
+  <si>
+    <t>1.2(Contact Request update unsuccessful)</t>
+  </si>
+  <si>
+    <t>1.2 PASS</t>
   </si>
 </sst>
 </file>
@@ -565,15 +635,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="60.54296875" customWidth="1"/>
     <col min="2" max="2" width="87.1796875" customWidth="1"/>
     <col min="3" max="3" width="40.26953125" customWidth="1"/>
     <col min="4" max="4" width="71.453125" customWidth="1"/>
@@ -656,10 +726,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -667,13 +737,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -693,13 +763,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -719,13 +789,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -734,24 +804,24 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -760,10 +830,10 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -771,16 +841,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -792,21 +862,21 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -818,21 +888,21 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -844,21 +914,21 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -870,48 +940,48 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -922,21 +992,21 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -948,10 +1018,193 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Matrix.xlsx
+++ b/Test Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ada2637025c8e144/Desktop/Revature/project2/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B216573F-32E5-4BB7-84E8-24BB1E2F3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{B216573F-32E5-4BB7-84E8-24BB1E2F3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA04060-B3EF-46DF-A562-3E4052B5BD23}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="165" windowWidth="25185" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43350" yWindow="3555" windowWidth="16170" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>Feature</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>1.2 PASS</t>
+  </si>
+  <si>
+    <t>https://github.com/Chris24xx/BookShelf/blob/main/PrrojectGoodReads/src/test/resources/Features/contactUsFeatures.feature</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,6 +1057,9 @@
       <c r="B18" t="s">
         <v>64</v>
       </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
       <c r="D18" t="s">
         <v>76</v>
       </c>
@@ -1080,6 +1086,9 @@
       <c r="B19" t="s">
         <v>65</v>
       </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
@@ -1106,6 +1115,9 @@
       <c r="B20" t="s">
         <v>66</v>
       </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
       <c r="D20" t="s">
         <v>78</v>
       </c>
@@ -1132,6 +1144,9 @@
       <c r="B21" t="s">
         <v>67</v>
       </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" t="s">
         <v>79</v>
       </c>
@@ -1158,6 +1173,9 @@
       <c r="B22" t="s">
         <v>68</v>
       </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
@@ -1183,6 +1201,9 @@
       </c>
       <c r="B23" t="s">
         <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
